--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_50pct/Tests_DM/dm_completo_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_50pct/Tests_DM/dm_completo_Lineal_No_Estacionario_ARIMA.xlsx
@@ -471,7 +471,7 @@
         <v>-1</v>
       </c>
       <c r="F2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>-1</v>
@@ -483,7 +483,7 @@
         <v>-1</v>
       </c>
       <c r="J2">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -538,10 +538,10 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -587,7 +587,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>-1</v>
@@ -625,7 +625,7 @@
         <v>-1</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -657,7 +657,7 @@
         <v>-1</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -715,7 +715,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>-1</v>
@@ -736,7 +736,7 @@
         <v>-1</v>
       </c>
       <c r="I10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -792,28 +792,28 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>2.333688797762079E-13</v>
+        <v>6.055425283424398E-07</v>
       </c>
       <c r="D2">
-        <v>2.177813485104707E-12</v>
+        <v>9.860043272968966E-07</v>
       </c>
       <c r="E2">
-        <v>3.917729007874016E-08</v>
+        <v>2.489603957500641E-05</v>
       </c>
       <c r="F2">
-        <v>4.347484753264297E-05</v>
+        <v>0.00290885226347859</v>
       </c>
       <c r="G2">
-        <v>1.554312234475219E-15</v>
+        <v>3.357996287700615E-07</v>
       </c>
       <c r="H2">
-        <v>4.218847493575595E-15</v>
+        <v>2.217369408086256E-07</v>
       </c>
       <c r="I2">
-        <v>2.176037128265307E-14</v>
+        <v>2.403415779728135E-06</v>
       </c>
       <c r="J2">
-        <v>0.000226183309145922</v>
+        <v>0.003642738788639077</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -821,31 +821,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.333688797762079E-13</v>
+        <v>6.055425283424398E-07</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>4.232962749650682E-06</v>
       </c>
       <c r="E3">
-        <v>1.152411499560912E-13</v>
+        <v>1.82779939272848E-06</v>
       </c>
       <c r="F3">
-        <v>1.515898517823189E-12</v>
+        <v>5.738411972266988E-07</v>
       </c>
       <c r="G3">
-        <v>3.879978382581584E-06</v>
+        <v>0.0001812937221012945</v>
       </c>
       <c r="H3">
-        <v>2.260189979619298E-06</v>
+        <v>0.0002170466552542383</v>
       </c>
       <c r="I3">
-        <v>0.002444016097572943</v>
+        <v>0.01362008903117728</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>7.668756385470488E-07</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -853,31 +853,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.177813485104707E-12</v>
+        <v>9.860043272968966E-07</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>4.232962749650682E-06</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>3.024158701236956E-11</v>
+        <v>2.766109294949359E-06</v>
       </c>
       <c r="F4">
-        <v>1.644151481627887E-11</v>
+        <v>9.591209819692637E-07</v>
       </c>
       <c r="G4">
-        <v>0.0006614691363686642</v>
+        <v>0.003570321107812635</v>
       </c>
       <c r="H4">
-        <v>0.0002450969354679255</v>
+        <v>0.002064290420534798</v>
       </c>
       <c r="I4">
-        <v>0.02936196422892312</v>
+        <v>0.0718188357005054</v>
       </c>
       <c r="J4">
-        <v>3.33066907387547E-15</v>
+        <v>1.351074071731517E-06</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -885,31 +885,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.917729007874016E-08</v>
+        <v>2.489603957500641E-05</v>
       </c>
       <c r="C5">
-        <v>1.152411499560912E-13</v>
+        <v>1.82779939272848E-06</v>
       </c>
       <c r="D5">
-        <v>3.024158701236956E-11</v>
+        <v>2.766109294949359E-06</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>4.341178361233489E-07</v>
+        <v>3.828200494293554E-05</v>
       </c>
       <c r="G5">
-        <v>0.01381350309105311</v>
+        <v>0.05506329268037713</v>
       </c>
       <c r="H5">
-        <v>0.07409052542674766</v>
+        <v>0.1080842082647553</v>
       </c>
       <c r="I5">
-        <v>0.2236523700325241</v>
+        <v>0.3456897100379164</v>
       </c>
       <c r="J5">
-        <v>1.964737028625763E-07</v>
+        <v>0.0002192116284642776</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -917,31 +917,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.347484753264297E-05</v>
+        <v>0.00290885226347859</v>
       </c>
       <c r="C6">
-        <v>1.515898517823189E-12</v>
+        <v>5.738411972266988E-07</v>
       </c>
       <c r="D6">
-        <v>1.644151481627887E-11</v>
+        <v>9.591209819692637E-07</v>
       </c>
       <c r="E6">
-        <v>4.341178361233489E-07</v>
+        <v>3.828200494293554E-05</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.642330798607873E-14</v>
+        <v>2.054709458132464E-07</v>
       </c>
       <c r="H6">
-        <v>7.438494264988549E-14</v>
+        <v>1.27633897895052E-07</v>
       </c>
       <c r="I6">
-        <v>3.910205492729801E-13</v>
+        <v>4.484362988277368E-06</v>
       </c>
       <c r="J6">
-        <v>0.003290636195171892</v>
+        <v>0.01562590435471978</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -949,31 +949,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.554312234475219E-15</v>
+        <v>3.357996287700615E-07</v>
       </c>
       <c r="C7">
-        <v>3.879978382581584E-06</v>
+        <v>0.0001812937221012945</v>
       </c>
       <c r="D7">
-        <v>0.0006614691363686642</v>
+        <v>0.003570321107812635</v>
       </c>
       <c r="E7">
-        <v>0.01381350309105311</v>
+        <v>0.05506329268037713</v>
       </c>
       <c r="F7">
-        <v>2.642330798607873E-14</v>
+        <v>2.054709458132464E-07</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.3057557251906031</v>
+        <v>0.3970610326266533</v>
       </c>
       <c r="I7">
-        <v>0.7752209462404718</v>
+        <v>0.8114390071716264</v>
       </c>
       <c r="J7">
-        <v>9.933542877149648E-10</v>
+        <v>0.0003191691109358796</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -981,31 +981,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.218847493575595E-15</v>
+        <v>2.217369408086256E-07</v>
       </c>
       <c r="C8">
-        <v>2.260189979619298E-06</v>
+        <v>0.0002170466552542383</v>
       </c>
       <c r="D8">
-        <v>0.0002450969354679255</v>
+        <v>0.002064290420534798</v>
       </c>
       <c r="E8">
-        <v>0.07409052542674766</v>
+        <v>0.1080842082647553</v>
       </c>
       <c r="F8">
-        <v>7.438494264988549E-14</v>
+        <v>1.27633897895052E-07</v>
       </c>
       <c r="G8">
-        <v>0.3057557251906031</v>
+        <v>0.3970610326266533</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.8404088552492301</v>
+        <v>0.8699844764701392</v>
       </c>
       <c r="J8">
-        <v>2.344948684118719E-07</v>
+        <v>0.0006865340194259772</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1013,31 +1013,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.176037128265307E-14</v>
+        <v>2.403415779728135E-06</v>
       </c>
       <c r="C9">
-        <v>0.002444016097572943</v>
+        <v>0.01362008903117728</v>
       </c>
       <c r="D9">
-        <v>0.02936196422892312</v>
+        <v>0.0718188357005054</v>
       </c>
       <c r="E9">
-        <v>0.2236523700325241</v>
+        <v>0.3456897100379164</v>
       </c>
       <c r="F9">
-        <v>3.910205492729801E-13</v>
+        <v>4.484362988277368E-06</v>
       </c>
       <c r="G9">
-        <v>0.7752209462404718</v>
+        <v>0.8114390071716264</v>
       </c>
       <c r="H9">
-        <v>0.8404088552492301</v>
+        <v>0.8699844764701392</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>3.345194717807587E-05</v>
+        <v>0.004901163512162299</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1045,28 +1045,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.000226183309145922</v>
+        <v>0.003642738788639077</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>7.668756385470488E-07</v>
       </c>
       <c r="D10">
-        <v>3.33066907387547E-15</v>
+        <v>1.351074071731517E-06</v>
       </c>
       <c r="E10">
-        <v>1.964737028625763E-07</v>
+        <v>0.0002192116284642776</v>
       </c>
       <c r="F10">
-        <v>0.003290636195171892</v>
+        <v>0.01562590435471978</v>
       </c>
       <c r="G10">
-        <v>9.933542877149648E-10</v>
+        <v>0.0003191691109358796</v>
       </c>
       <c r="H10">
-        <v>2.344948684118719E-07</v>
+        <v>0.0006865340194259772</v>
       </c>
       <c r="I10">
-        <v>3.345194717807587E-05</v>
+        <v>0.004901163512162299</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1122,28 +1122,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.542455554858503</v>
+        <v>8.574276642007824</v>
       </c>
       <c r="D2">
-        <v>7.211216907281085</v>
+        <v>8.227910348157646</v>
       </c>
       <c r="E2">
-        <v>5.585234916077519</v>
+        <v>6.156868523869941</v>
       </c>
       <c r="F2">
-        <v>4.126298320859687</v>
+        <v>3.598200079038175</v>
       </c>
       <c r="G2">
-        <v>8.247804801379448</v>
+        <v>9.006721085153284</v>
       </c>
       <c r="H2">
-        <v>8.115856225888962</v>
+        <v>9.320434151679192</v>
       </c>
       <c r="I2">
-        <v>7.882050849188917</v>
+        <v>7.619558925530872</v>
       </c>
       <c r="J2">
-        <v>3.716114418667889</v>
+        <v>3.484923958120196</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1151,31 +1151,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-7.542455554858503</v>
+        <v>-8.574276642007824</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-8.945222321458825</v>
+        <v>-7.248609694337011</v>
       </c>
       <c r="E3">
-        <v>-7.644781067423391</v>
+        <v>-7.803220945632306</v>
       </c>
       <c r="F3">
-        <v>-7.265759063096714</v>
+        <v>-8.613089787057703</v>
       </c>
       <c r="G3">
-        <v>-4.672063787260142</v>
+        <v>-5.038008485487055</v>
       </c>
       <c r="H3">
-        <v>-4.786920070880427</v>
+        <v>-4.941016771503238</v>
       </c>
       <c r="I3">
-        <v>-3.046369917003759</v>
+        <v>-2.820470964692455</v>
       </c>
       <c r="J3">
-        <v>-8.587978868026877</v>
+        <v>-8.405235048179513</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1183,31 +1183,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-7.211216907281085</v>
+        <v>-8.227910348157646</v>
       </c>
       <c r="C4">
-        <v>8.945222321458825</v>
+        <v>7.248609694337011</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-6.80522826270279</v>
+        <v>-7.526359868937279</v>
       </c>
       <c r="F4">
-        <v>-6.90092167693868</v>
+        <v>-8.247286836602939</v>
       </c>
       <c r="G4">
-        <v>-3.427587069748089</v>
+        <v>-3.495026929169753</v>
       </c>
       <c r="H4">
-        <v>-3.69517406777311</v>
+        <v>-3.771376159443729</v>
       </c>
       <c r="I4">
-        <v>-2.185145154710295</v>
+        <v>-1.947481322648428</v>
       </c>
       <c r="J4">
-        <v>-8.143241985413903</v>
+        <v>-8.009291042480017</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1215,31 +1215,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-5.585234916077519</v>
+        <v>-6.156868523869941</v>
       </c>
       <c r="C5">
-        <v>7.644781067423391</v>
+        <v>7.803220945632306</v>
       </c>
       <c r="D5">
-        <v>6.80522826270279</v>
+        <v>7.526359868937279</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-5.124192588259048</v>
+        <v>-5.905975162405412</v>
       </c>
       <c r="G5">
-        <v>2.471183242012948</v>
+        <v>2.092780974508306</v>
       </c>
       <c r="H5">
-        <v>1.789968275655216</v>
+        <v>1.716602901094829</v>
       </c>
       <c r="I5">
-        <v>1.218451100730829</v>
+        <v>0.9758720499041124</v>
       </c>
       <c r="J5">
-        <v>-5.279834341917388</v>
+        <v>-4.935687015447058</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1247,31 +1247,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-4.126298320859687</v>
+        <v>-3.598200079038175</v>
       </c>
       <c r="C6">
-        <v>7.265759063096714</v>
+        <v>8.613089787057703</v>
       </c>
       <c r="D6">
-        <v>6.90092167693868</v>
+        <v>8.247286836602939</v>
       </c>
       <c r="E6">
-        <v>5.124192588259048</v>
+        <v>5.905975162405412</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>7.855051765145786</v>
+        <v>9.378887277044534</v>
       </c>
       <c r="H6">
-        <v>7.707942837663235</v>
+        <v>9.750441405157677</v>
       </c>
       <c r="I6">
-        <v>7.466951714799654</v>
+        <v>7.211440637009393</v>
       </c>
       <c r="J6">
-        <v>2.954052403118993</v>
+        <v>2.750621455075693</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1279,31 +1279,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-8.247804801379448</v>
+        <v>-9.006721085153284</v>
       </c>
       <c r="C7">
-        <v>4.672063787260142</v>
+        <v>5.038008485487055</v>
       </c>
       <c r="D7">
-        <v>3.427587069748089</v>
+        <v>3.495026929169753</v>
       </c>
       <c r="E7">
-        <v>-2.471183242012948</v>
+        <v>-2.092780974508306</v>
       </c>
       <c r="F7">
-        <v>-7.855051765145786</v>
+        <v>-9.378887277044534</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>-1.025264830249272</v>
+        <v>-0.8736244497302728</v>
       </c>
       <c r="I7">
-        <v>-0.2857136690527395</v>
+        <v>-0.2431192562678579</v>
       </c>
       <c r="J7">
-        <v>-6.234868049586429</v>
+        <v>-4.735316299259548</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1311,31 +1311,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-8.115856225888962</v>
+        <v>-9.320434151679192</v>
       </c>
       <c r="C8">
-        <v>4.786920070880427</v>
+        <v>4.941016771503238</v>
       </c>
       <c r="D8">
-        <v>3.69517406777311</v>
+        <v>3.771376159443729</v>
       </c>
       <c r="E8">
-        <v>-1.789968275655216</v>
+        <v>-1.716602901094829</v>
       </c>
       <c r="F8">
-        <v>-7.707942837663235</v>
+        <v>-9.750441405157677</v>
       </c>
       <c r="G8">
-        <v>1.025264830249272</v>
+        <v>0.8736244497302728</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2014799266604431</v>
+        <v>0.1667069019325835</v>
       </c>
       <c r="J8">
-        <v>-5.245436471559257</v>
+        <v>-4.334264197936608</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1343,31 +1343,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-7.882050849188917</v>
+        <v>-7.619558925530872</v>
       </c>
       <c r="C9">
-        <v>3.046369917003759</v>
+        <v>2.820470964692455</v>
       </c>
       <c r="D9">
-        <v>2.185145154710295</v>
+        <v>1.947481322648428</v>
       </c>
       <c r="E9">
-        <v>-1.218451100730829</v>
+        <v>-0.9758720499041124</v>
       </c>
       <c r="F9">
-        <v>-7.466951714799654</v>
+        <v>-7.211440637009393</v>
       </c>
       <c r="G9">
-        <v>0.2857136690527395</v>
+        <v>0.2431192562678579</v>
       </c>
       <c r="H9">
-        <v>-0.2014799266604431</v>
+        <v>-0.1667069019325835</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>-4.188361068345785</v>
+        <v>-3.335730120814543</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1375,28 +1375,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-3.716114418667889</v>
+        <v>-3.484923958120196</v>
       </c>
       <c r="C10">
-        <v>8.587978868026877</v>
+        <v>8.405235048179513</v>
       </c>
       <c r="D10">
-        <v>8.143241985413903</v>
+        <v>8.009291042480017</v>
       </c>
       <c r="E10">
-        <v>5.279834341917388</v>
+        <v>4.935687015447058</v>
       </c>
       <c r="F10">
-        <v>-2.954052403118993</v>
+        <v>-2.750621455075693</v>
       </c>
       <c r="G10">
-        <v>6.234868049586429</v>
+        <v>4.735316299259548</v>
       </c>
       <c r="H10">
-        <v>5.245436471559257</v>
+        <v>4.334264197936608</v>
       </c>
       <c r="I10">
-        <v>4.188361068345785</v>
+        <v>3.335730120814543</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1460,16 +1460,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="F3">
         <v>0.9887723923810938</v>
@@ -1477,22 +1477,22 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <v>37.5</v>
       </c>
       <c r="F4">
-        <v>2.181297666943298</v>
+        <v>2.270159067680547</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1523,10 +1523,10 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <v>37.5</v>
@@ -1537,82 +1537,82 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
       <c r="E7">
-        <v>37.5</v>
+        <v>25</v>
       </c>
       <c r="F7">
-        <v>2.270159067680547</v>
+        <v>2.181297666943298</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>7.052496579093455</v>
+        <v>7.637559217939003</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>6</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>4.908057177504944</v>
+        <v>7.052496579093455</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>7.637559217939003</v>
+        <v>4.908057177504944</v>
       </c>
     </row>
   </sheetData>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_50pct/Tests_DM/dm_completo_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_50pct/Tests_DM/dm_completo_Lineal_No_Estacionario_ARIMA.xlsx
@@ -471,7 +471,7 @@
         <v>-1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G2">
         <v>-1</v>
@@ -483,7 +483,7 @@
         <v>-1</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -506,7 +506,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -532,7 +532,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -561,7 +561,7 @@
         <v>-1</v>
       </c>
       <c r="D5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -587,7 +587,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>-1</v>
@@ -611,7 +611,7 @@
         <v>-1</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -622,7 +622,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -715,28 +715,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>-1</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>-1</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -792,28 +792,28 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>6.055425283424398E-07</v>
+        <v>8.072133374370516E-05</v>
       </c>
       <c r="D2">
-        <v>9.860043272968966E-07</v>
+        <v>0.0001263236526884981</v>
       </c>
       <c r="E2">
-        <v>2.489603957500641E-05</v>
+        <v>0.0001277203771474777</v>
       </c>
       <c r="F2">
-        <v>0.00290885226347859</v>
+        <v>8.492790801928329E-05</v>
       </c>
       <c r="G2">
-        <v>3.357996287700615E-07</v>
+        <v>1.759796551370485E-05</v>
       </c>
       <c r="H2">
-        <v>2.217369408086256E-07</v>
+        <v>3.612730139135323E-05</v>
       </c>
       <c r="I2">
-        <v>2.403415779728135E-06</v>
+        <v>3.352844209603134E-06</v>
       </c>
       <c r="J2">
-        <v>0.003642738788639077</v>
+        <v>2.721107456471472E-05</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -821,31 +821,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.055425283424398E-07</v>
+        <v>8.072133374370516E-05</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>4.232962749650682E-06</v>
+        <v>4.402282982596262E-10</v>
       </c>
       <c r="E3">
-        <v>1.82779939272848E-06</v>
+        <v>1.867412890987907E-10</v>
       </c>
       <c r="F3">
-        <v>5.738411972266988E-07</v>
+        <v>9.663842308804682E-05</v>
       </c>
       <c r="G3">
-        <v>0.0001812937221012945</v>
+        <v>0.004769213414330231</v>
       </c>
       <c r="H3">
-        <v>0.0002170466552542383</v>
+        <v>0.001157267925912198</v>
       </c>
       <c r="I3">
-        <v>0.01362008903117728</v>
+        <v>0.01756234851462923</v>
       </c>
       <c r="J3">
-        <v>7.668756385470488E-07</v>
+        <v>0.0007122056639765617</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -853,31 +853,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.860043272968966E-07</v>
+        <v>0.0001263236526884981</v>
       </c>
       <c r="C4">
-        <v>4.232962749650682E-06</v>
+        <v>4.402282982596262E-10</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>2.766109294949359E-06</v>
+        <v>0.2377510894435739</v>
       </c>
       <c r="F4">
-        <v>9.591209819692637E-07</v>
+        <v>0.0001598897010386402</v>
       </c>
       <c r="G4">
-        <v>0.003570321107812635</v>
+        <v>0.0249930502677862</v>
       </c>
       <c r="H4">
-        <v>0.002064290420534798</v>
+        <v>0.006982531606519293</v>
       </c>
       <c r="I4">
-        <v>0.0718188357005054</v>
+        <v>0.05635732116489067</v>
       </c>
       <c r="J4">
-        <v>1.351074071731517E-06</v>
+        <v>0.001529059438523106</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -885,31 +885,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.489603957500641E-05</v>
+        <v>0.0001277203771474777</v>
       </c>
       <c r="C5">
-        <v>1.82779939272848E-06</v>
+        <v>1.867412890987907E-10</v>
       </c>
       <c r="D5">
-        <v>2.766109294949359E-06</v>
+        <v>0.2377510894435739</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>3.828200494293554E-05</v>
+        <v>0.0001617209778066453</v>
       </c>
       <c r="G5">
-        <v>0.05506329268037713</v>
+        <v>0.0254418366300464</v>
       </c>
       <c r="H5">
-        <v>0.1080842082647553</v>
+        <v>0.007136341826166293</v>
       </c>
       <c r="I5">
-        <v>0.3456897100379164</v>
+        <v>0.05699497320981073</v>
       </c>
       <c r="J5">
-        <v>0.0002192116284642776</v>
+        <v>0.001556333236381269</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -917,31 +917,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.00290885226347859</v>
+        <v>8.492790801928329E-05</v>
       </c>
       <c r="C6">
-        <v>5.738411972266988E-07</v>
+        <v>9.663842308804682E-05</v>
       </c>
       <c r="D6">
-        <v>9.591209819692637E-07</v>
+        <v>0.0001598897010386402</v>
       </c>
       <c r="E6">
-        <v>3.828200494293554E-05</v>
+        <v>0.0001617209778066453</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.054709458132464E-07</v>
+        <v>1.844641005455117E-05</v>
       </c>
       <c r="H6">
-        <v>1.27633897895052E-07</v>
+        <v>4.197554613272203E-05</v>
       </c>
       <c r="I6">
-        <v>4.484362988277368E-06</v>
+        <v>2.403310687348892E-06</v>
       </c>
       <c r="J6">
-        <v>0.01562590435471978</v>
+        <v>7.108822606305409E-05</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -949,31 +949,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.357996287700615E-07</v>
+        <v>1.759796551370485E-05</v>
       </c>
       <c r="C7">
-        <v>0.0001812937221012945</v>
+        <v>0.004769213414330231</v>
       </c>
       <c r="D7">
-        <v>0.003570321107812635</v>
+        <v>0.0249930502677862</v>
       </c>
       <c r="E7">
-        <v>0.05506329268037713</v>
+        <v>0.0254418366300464</v>
       </c>
       <c r="F7">
-        <v>2.054709458132464E-07</v>
+        <v>1.844641005455117E-05</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.3970610326266533</v>
+        <v>0.03908139653987597</v>
       </c>
       <c r="I7">
-        <v>0.8114390071716264</v>
+        <v>0.4653521634738773</v>
       </c>
       <c r="J7">
-        <v>0.0003191691109358796</v>
+        <v>0.0004247950813087709</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -981,31 +981,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.217369408086256E-07</v>
+        <v>3.612730139135323E-05</v>
       </c>
       <c r="C8">
-        <v>0.0002170466552542383</v>
+        <v>0.001157267925912198</v>
       </c>
       <c r="D8">
-        <v>0.002064290420534798</v>
+        <v>0.006982531606519293</v>
       </c>
       <c r="E8">
-        <v>0.1080842082647553</v>
+        <v>0.007136341826166293</v>
       </c>
       <c r="F8">
-        <v>1.27633897895052E-07</v>
+        <v>4.197554613272203E-05</v>
       </c>
       <c r="G8">
-        <v>0.3970610326266533</v>
+        <v>0.03908139653987597</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.8699844764701392</v>
+        <v>0.8964691895112644</v>
       </c>
       <c r="J8">
-        <v>0.0006865340194259772</v>
+        <v>0.00148753876883756</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1013,31 +1013,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.403415779728135E-06</v>
+        <v>3.352844209603134E-06</v>
       </c>
       <c r="C9">
-        <v>0.01362008903117728</v>
+        <v>0.01756234851462923</v>
       </c>
       <c r="D9">
-        <v>0.0718188357005054</v>
+        <v>0.05635732116489067</v>
       </c>
       <c r="E9">
-        <v>0.3456897100379164</v>
+        <v>0.05699497320981073</v>
       </c>
       <c r="F9">
-        <v>4.484362988277368E-06</v>
+        <v>2.403310687348892E-06</v>
       </c>
       <c r="G9">
-        <v>0.8114390071716264</v>
+        <v>0.4653521634738773</v>
       </c>
       <c r="H9">
-        <v>0.8699844764701392</v>
+        <v>0.8964691895112644</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.004901163512162299</v>
+        <v>0.0002790136205266247</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1045,28 +1045,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.003642738788639077</v>
+        <v>2.721107456471472E-05</v>
       </c>
       <c r="C10">
-        <v>7.668756385470488E-07</v>
+        <v>0.0007122056639765617</v>
       </c>
       <c r="D10">
-        <v>1.351074071731517E-06</v>
+        <v>0.001529059438523106</v>
       </c>
       <c r="E10">
-        <v>0.0002192116284642776</v>
+        <v>0.001556333236381269</v>
       </c>
       <c r="F10">
-        <v>0.01562590435471978</v>
+        <v>7.108822606305409E-05</v>
       </c>
       <c r="G10">
-        <v>0.0003191691109358796</v>
+        <v>0.0004247950813087709</v>
       </c>
       <c r="H10">
-        <v>0.0006865340194259772</v>
+        <v>0.00148753876883756</v>
       </c>
       <c r="I10">
-        <v>0.004901163512162299</v>
+        <v>0.0002790136205266247</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1122,28 +1122,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.574276642007824</v>
+        <v>4.824147997512027</v>
       </c>
       <c r="D2">
-        <v>8.227910348157646</v>
+        <v>4.640228187440794</v>
       </c>
       <c r="E2">
-        <v>6.156868523869941</v>
+        <v>4.63571890709856</v>
       </c>
       <c r="F2">
-        <v>3.598200079038175</v>
+        <v>4.80325597156941</v>
       </c>
       <c r="G2">
-        <v>9.006721085153284</v>
+        <v>5.45593013529447</v>
       </c>
       <c r="H2">
-        <v>9.320434151679192</v>
+        <v>5.156134420644108</v>
       </c>
       <c r="I2">
-        <v>7.619558925530872</v>
+        <v>6.16102690984193</v>
       </c>
       <c r="J2">
-        <v>3.484923958120196</v>
+        <v>5.273908113049999</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1151,31 +1151,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-8.574276642007824</v>
+        <v>-4.824147997512027</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-7.248609694337011</v>
+        <v>-10.56469948501372</v>
       </c>
       <c r="E3">
-        <v>-7.803220945632306</v>
+        <v>-11.06163577427344</v>
       </c>
       <c r="F3">
-        <v>-8.613089787057703</v>
+        <v>-4.750168571809785</v>
       </c>
       <c r="G3">
-        <v>-5.038008485487055</v>
+        <v>-3.138992024607544</v>
       </c>
       <c r="H3">
-        <v>-4.941016771503238</v>
+        <v>-3.731872247176238</v>
       </c>
       <c r="I3">
-        <v>-2.820470964692455</v>
+        <v>-2.567512970593369</v>
       </c>
       <c r="J3">
-        <v>-8.405235048179513</v>
+        <v>-3.931768329466343</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1183,31 +1183,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-8.227910348157646</v>
+        <v>-4.640228187440794</v>
       </c>
       <c r="C4">
-        <v>7.248609694337011</v>
+        <v>10.56469948501372</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-7.526359868937279</v>
+        <v>-1.213648766095666</v>
       </c>
       <c r="F4">
-        <v>-8.247286836602939</v>
+        <v>-4.543650599125858</v>
       </c>
       <c r="G4">
-        <v>-3.495026929169753</v>
+        <v>-2.405601930530784</v>
       </c>
       <c r="H4">
-        <v>-3.771376159443729</v>
+        <v>-2.975308337805956</v>
       </c>
       <c r="I4">
-        <v>-1.947481322648428</v>
+        <v>-2.014363372262448</v>
       </c>
       <c r="J4">
-        <v>-8.009291042480017</v>
+        <v>-3.616597521161701</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1215,31 +1215,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-6.156868523869941</v>
+        <v>-4.63571890709856</v>
       </c>
       <c r="C5">
-        <v>7.803220945632306</v>
+        <v>11.06163577427344</v>
       </c>
       <c r="D5">
-        <v>7.526359868937279</v>
+        <v>1.213648766095666</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-5.905975162405412</v>
+        <v>-4.538985540182227</v>
       </c>
       <c r="G5">
-        <v>2.092780974508306</v>
+        <v>-2.397327145641541</v>
       </c>
       <c r="H5">
-        <v>1.716602901094829</v>
+        <v>-2.965880680459398</v>
       </c>
       <c r="I5">
-        <v>0.9758720499041124</v>
+        <v>-2.008729616501218</v>
       </c>
       <c r="J5">
-        <v>-4.935687015447058</v>
+        <v>-3.609265032130573</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1247,31 +1247,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-3.598200079038175</v>
+        <v>-4.80325597156941</v>
       </c>
       <c r="C6">
-        <v>8.613089787057703</v>
+        <v>4.750168571809785</v>
       </c>
       <c r="D6">
-        <v>8.247286836602939</v>
+        <v>4.543650599125858</v>
       </c>
       <c r="E6">
-        <v>5.905975162405412</v>
+        <v>4.538985540182227</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>9.378887277044534</v>
+        <v>5.436207830987123</v>
       </c>
       <c r="H6">
-        <v>9.750441405157677</v>
+        <v>5.093958325870257</v>
       </c>
       <c r="I6">
-        <v>7.211440637009393</v>
+        <v>6.305504723425958</v>
       </c>
       <c r="J6">
-        <v>2.750621455075693</v>
+        <v>4.876450134781066</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1279,31 +1279,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-9.006721085153284</v>
+        <v>-5.45593013529447</v>
       </c>
       <c r="C7">
-        <v>5.038008485487055</v>
+        <v>3.138992024607544</v>
       </c>
       <c r="D7">
-        <v>3.495026929169753</v>
+        <v>2.405601930530784</v>
       </c>
       <c r="E7">
-        <v>-2.092780974508306</v>
+        <v>2.397327145641541</v>
       </c>
       <c r="F7">
-        <v>-9.378887277044534</v>
+        <v>-5.436207830987123</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>-0.8736244497302728</v>
+        <v>-2.194109052043106</v>
       </c>
       <c r="I7">
-        <v>-0.2431192562678579</v>
+        <v>-0.7429835339016261</v>
       </c>
       <c r="J7">
-        <v>-4.735316299259548</v>
+        <v>-4.143675760342196</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1311,31 +1311,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-9.320434151679192</v>
+        <v>-5.156134420644108</v>
       </c>
       <c r="C8">
-        <v>4.941016771503238</v>
+        <v>3.731872247176238</v>
       </c>
       <c r="D8">
-        <v>3.771376159443729</v>
+        <v>2.975308337805956</v>
       </c>
       <c r="E8">
-        <v>-1.716602901094829</v>
+        <v>2.965880680459398</v>
       </c>
       <c r="F8">
-        <v>-9.750441405157677</v>
+        <v>-5.093958325870257</v>
       </c>
       <c r="G8">
-        <v>0.8736244497302728</v>
+        <v>2.194109052043106</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1667069019325835</v>
+        <v>-0.1316353015731271</v>
       </c>
       <c r="J8">
-        <v>-4.334264197936608</v>
+        <v>-3.628010935859841</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1343,31 +1343,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-7.619558925530872</v>
+        <v>-6.16102690984193</v>
       </c>
       <c r="C9">
-        <v>2.820470964692455</v>
+        <v>2.567512970593369</v>
       </c>
       <c r="D9">
-        <v>1.947481322648428</v>
+        <v>2.014363372262448</v>
       </c>
       <c r="E9">
-        <v>-0.9758720499041124</v>
+        <v>2.008729616501218</v>
       </c>
       <c r="F9">
-        <v>-7.211440637009393</v>
+        <v>-6.305504723425958</v>
       </c>
       <c r="G9">
-        <v>0.2431192562678579</v>
+        <v>0.7429835339016261</v>
       </c>
       <c r="H9">
-        <v>-0.1667069019325835</v>
+        <v>0.1316353015731271</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>-3.335730120814543</v>
+        <v>-4.315732604456329</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1375,28 +1375,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-3.484923958120196</v>
+        <v>-5.273908113049999</v>
       </c>
       <c r="C10">
-        <v>8.405235048179513</v>
+        <v>3.931768329466343</v>
       </c>
       <c r="D10">
-        <v>8.009291042480017</v>
+        <v>3.616597521161701</v>
       </c>
       <c r="E10">
-        <v>4.935687015447058</v>
+        <v>3.609265032130573</v>
       </c>
       <c r="F10">
-        <v>-2.750621455075693</v>
+        <v>-4.876450134781066</v>
       </c>
       <c r="G10">
-        <v>4.735316299259548</v>
+        <v>4.143675760342196</v>
       </c>
       <c r="H10">
-        <v>4.334264197936608</v>
+        <v>3.628010935859841</v>
       </c>
       <c r="I10">
-        <v>3.335730120814543</v>
+        <v>4.315732604456329</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1440,139 +1440,139 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>87.5</v>
+        <v>75</v>
       </c>
       <c r="F2">
-        <v>0.5481793489731795</v>
+        <v>0.5503052085088433</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>50</v>
+        <v>37.5</v>
       </c>
       <c r="F3">
-        <v>0.9887723923810938</v>
+        <v>2.755643412989106</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>37.5</v>
       </c>
       <c r="F4">
-        <v>2.270159067680547</v>
+        <v>2.495345276450561</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>37.5</v>
+        <v>25</v>
       </c>
       <c r="F5">
-        <v>2.911523001025154</v>
+        <v>2.702922312761013</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
       <c r="E6">
-        <v>37.5</v>
+        <v>25</v>
       </c>
       <c r="F6">
-        <v>2.076413338813119</v>
+        <v>1.079198333557301</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <v>25</v>
       </c>
       <c r="F7">
-        <v>2.181297666943298</v>
+        <v>5.368216758212122</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F8">
-        <v>7.637559217939003</v>
+        <v>1.083028411345536</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1580,39 +1580,39 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="F9">
-        <v>7.052496579093455</v>
+        <v>9.071006213509772</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
       <c r="D10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>4.908057177504944</v>
+        <v>10.01552436533117</v>
       </c>
     </row>
   </sheetData>
